--- a/ANVNSimultaneous_2n_root_bank_thresh1.xlsx
+++ b/ANVNSimultaneous_2n_root_bank_thresh1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,10 +463,10 @@
         <v>250</v>
       </c>
       <c r="C2" t="n">
-        <v>36.19</v>
+        <v>33.38</v>
       </c>
       <c r="D2" t="n">
-        <v>2624.448974609375</v>
+        <v>2882.98974609375</v>
       </c>
     </row>
     <row r="3">
@@ -477,10 +477,10 @@
         <v>225</v>
       </c>
       <c r="C3" t="n">
-        <v>28.91</v>
+        <v>31.6</v>
       </c>
       <c r="D3" t="n">
-        <v>2771.598388671875</v>
+        <v>1667.5029296875</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         <v>200</v>
       </c>
       <c r="C4" t="n">
-        <v>33.89</v>
+        <v>30.28</v>
       </c>
       <c r="D4" t="n">
-        <v>2353.064697265625</v>
+        <v>2779.4326171875</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>27.37</v>
+        <v>35.27</v>
       </c>
       <c r="D5" t="n">
-        <v>2141.731689453125</v>
+        <v>2354.34130859375</v>
       </c>
     </row>
     <row r="6">
@@ -519,10 +519,10 @@
         <v>150</v>
       </c>
       <c r="C6" t="n">
-        <v>24.25</v>
+        <v>30.61</v>
       </c>
       <c r="D6" t="n">
-        <v>2000.988159179688</v>
+        <v>2071.305419921875</v>
       </c>
     </row>
     <row r="7">
@@ -533,10 +533,10 @@
         <v>125</v>
       </c>
       <c r="C7" t="n">
-        <v>30.37</v>
+        <v>29.87</v>
       </c>
       <c r="D7" t="n">
-        <v>1927.130737304688</v>
+        <v>1720.998779296875</v>
       </c>
     </row>
     <row r="8">
@@ -547,10 +547,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>30.82</v>
+        <v>21.34</v>
       </c>
       <c r="D8" t="n">
-        <v>1562.241821289062</v>
+        <v>1322.592895507812</v>
       </c>
     </row>
     <row r="9">
@@ -561,10 +561,10 @@
         <v>75</v>
       </c>
       <c r="C9" t="n">
-        <v>22.3</v>
+        <v>26.78</v>
       </c>
       <c r="D9" t="n">
-        <v>1100.692993164062</v>
+        <v>1160.3525390625</v>
       </c>
     </row>
     <row r="10">
@@ -575,10 +575,10 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>29.6</v>
+        <v>23.19</v>
       </c>
       <c r="D10" t="n">
-        <v>1014.506469726562</v>
+        <v>944.7431030273438</v>
       </c>
     </row>
     <row r="11">
@@ -589,10 +589,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>22.02</v>
+        <v>18.69</v>
       </c>
       <c r="D11" t="n">
-        <v>511.9188232421875</v>
+        <v>484.5665588378906</v>
       </c>
     </row>
     <row r="12">
@@ -603,10 +603,10 @@
         <v>250</v>
       </c>
       <c r="C12" t="n">
-        <v>27.38</v>
+        <v>33.07</v>
       </c>
       <c r="D12" t="n">
-        <v>2463.990966796875</v>
+        <v>2930.50146484375</v>
       </c>
     </row>
     <row r="13">
@@ -617,10 +617,10 @@
         <v>225</v>
       </c>
       <c r="C13" t="n">
-        <v>30.47</v>
+        <v>33.95</v>
       </c>
       <c r="D13" t="n">
-        <v>2614.616943359375</v>
+        <v>2332.81103515625</v>
       </c>
     </row>
     <row r="14">
@@ -631,10 +631,10 @@
         <v>200</v>
       </c>
       <c r="C14" t="n">
-        <v>26.72</v>
+        <v>32.36</v>
       </c>
       <c r="D14" t="n">
-        <v>2572.55810546875</v>
+        <v>2563.006591796875</v>
       </c>
     </row>
     <row r="15">
@@ -645,10 +645,10 @@
         <v>175</v>
       </c>
       <c r="C15" t="n">
-        <v>31.66</v>
+        <v>30.6</v>
       </c>
       <c r="D15" t="n">
-        <v>2506.281494140625</v>
+        <v>2819.62890625</v>
       </c>
     </row>
     <row r="16">
@@ -659,10 +659,10 @@
         <v>150</v>
       </c>
       <c r="C16" t="n">
-        <v>33.03</v>
+        <v>31.69</v>
       </c>
       <c r="D16" t="n">
-        <v>2417.152099609375</v>
+        <v>1908.829223632812</v>
       </c>
     </row>
     <row r="17">
@@ -673,10 +673,10 @@
         <v>125</v>
       </c>
       <c r="C17" t="n">
-        <v>29.39</v>
+        <v>23.06</v>
       </c>
       <c r="D17" t="n">
-        <v>1861.566650390625</v>
+        <v>1899.445068359375</v>
       </c>
     </row>
     <row r="18">
@@ -687,10 +687,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>29.81</v>
+        <v>19.84</v>
       </c>
       <c r="D18" t="n">
-        <v>1683.371337890625</v>
+        <v>1608.325073242188</v>
       </c>
     </row>
     <row r="19">
@@ -701,10 +701,10 @@
         <v>75</v>
       </c>
       <c r="C19" t="n">
-        <v>26.52</v>
+        <v>22.61</v>
       </c>
       <c r="D19" t="n">
-        <v>980.8920288085938</v>
+        <v>1231.698486328125</v>
       </c>
     </row>
     <row r="20">
@@ -715,10 +715,10 @@
         <v>50</v>
       </c>
       <c r="C20" t="n">
-        <v>21.79</v>
+        <v>21.57</v>
       </c>
       <c r="D20" t="n">
-        <v>789.7202758789062</v>
+        <v>852.9848022460938</v>
       </c>
     </row>
     <row r="21">
@@ -729,10 +729,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>22.87</v>
+        <v>18.86</v>
       </c>
       <c r="D21" t="n">
-        <v>450.3464660644531</v>
+        <v>509.8126525878906</v>
       </c>
     </row>
     <row r="22">
@@ -743,10 +743,10 @@
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>22.63</v>
+        <v>26.9</v>
       </c>
       <c r="D22" t="n">
-        <v>2038.624267578125</v>
+        <v>2484.573974609375</v>
       </c>
     </row>
     <row r="23">
@@ -757,10 +757,10 @@
         <v>225</v>
       </c>
       <c r="C23" t="n">
-        <v>34.48</v>
+        <v>29.46</v>
       </c>
       <c r="D23" t="n">
-        <v>2900.934326171875</v>
+        <v>2764.398681640625</v>
       </c>
     </row>
     <row r="24">
@@ -771,10 +771,10 @@
         <v>200</v>
       </c>
       <c r="C24" t="n">
-        <v>35.86</v>
+        <v>23.87</v>
       </c>
       <c r="D24" t="n">
-        <v>2718.3994140625</v>
+        <v>2490.17724609375</v>
       </c>
     </row>
     <row r="25">
@@ -785,10 +785,10 @@
         <v>175</v>
       </c>
       <c r="C25" t="n">
-        <v>27.43</v>
+        <v>30.74</v>
       </c>
       <c r="D25" t="n">
-        <v>1980.02294921875</v>
+        <v>2076.695556640625</v>
       </c>
     </row>
     <row r="26">
@@ -799,10 +799,10 @@
         <v>150</v>
       </c>
       <c r="C26" t="n">
-        <v>28.99</v>
+        <v>23.39</v>
       </c>
       <c r="D26" t="n">
-        <v>2251.297607421875</v>
+        <v>2283.16455078125</v>
       </c>
     </row>
     <row r="27">
@@ -813,10 +813,10 @@
         <v>125</v>
       </c>
       <c r="C27" t="n">
-        <v>29.73</v>
+        <v>22.59</v>
       </c>
       <c r="D27" t="n">
-        <v>1797.389770507812</v>
+        <v>2019.937255859375</v>
       </c>
     </row>
     <row r="28">
@@ -827,10 +827,10 @@
         <v>100</v>
       </c>
       <c r="C28" t="n">
-        <v>21.77</v>
+        <v>20.07</v>
       </c>
       <c r="D28" t="n">
-        <v>1523.172119140625</v>
+        <v>1298.2666015625</v>
       </c>
     </row>
     <row r="29">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="C29" t="n">
-        <v>20.56</v>
+        <v>20.38</v>
       </c>
       <c r="D29" t="n">
-        <v>1208.185302734375</v>
+        <v>1160.141723632812</v>
       </c>
     </row>
     <row r="30">
@@ -855,10 +855,10 @@
         <v>50</v>
       </c>
       <c r="C30" t="n">
-        <v>25.22</v>
+        <v>20.71</v>
       </c>
       <c r="D30" t="n">
-        <v>719.1243286132812</v>
+        <v>901.0799560546875</v>
       </c>
     </row>
     <row r="31">
@@ -869,10 +869,10 @@
         <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>20.1</v>
+        <v>20.19</v>
       </c>
       <c r="D31" t="n">
-        <v>408.02978515625</v>
+        <v>480.2723388671875</v>
       </c>
     </row>
     <row r="32">
@@ -883,10 +883,10 @@
         <v>250</v>
       </c>
       <c r="C32" t="n">
-        <v>30.42</v>
+        <v>33.61</v>
       </c>
       <c r="D32" t="n">
-        <v>1860.003540039062</v>
+        <v>2712.730224609375</v>
       </c>
     </row>
     <row r="33">
@@ -897,10 +897,10 @@
         <v>225</v>
       </c>
       <c r="C33" t="n">
-        <v>33.72</v>
+        <v>36.7</v>
       </c>
       <c r="D33" t="n">
-        <v>2840.616455078125</v>
+        <v>2904.090576171875</v>
       </c>
     </row>
     <row r="34">
@@ -911,10 +911,10 @@
         <v>200</v>
       </c>
       <c r="C34" t="n">
-        <v>33.07</v>
+        <v>31.01</v>
       </c>
       <c r="D34" t="n">
-        <v>2435.43408203125</v>
+        <v>2375.75244140625</v>
       </c>
     </row>
     <row r="35">
@@ -925,10 +925,10 @@
         <v>175</v>
       </c>
       <c r="C35" t="n">
-        <v>31.17</v>
+        <v>33.31</v>
       </c>
       <c r="D35" t="n">
-        <v>1989.98193359375</v>
+        <v>2475.128662109375</v>
       </c>
     </row>
     <row r="36">
@@ -939,10 +939,10 @@
         <v>150</v>
       </c>
       <c r="C36" t="n">
-        <v>31.8</v>
+        <v>26.37</v>
       </c>
       <c r="D36" t="n">
-        <v>1969.102294921875</v>
+        <v>2468.570068359375</v>
       </c>
     </row>
     <row r="37">
@@ -953,10 +953,10 @@
         <v>125</v>
       </c>
       <c r="C37" t="n">
-        <v>25.82</v>
+        <v>29.72</v>
       </c>
       <c r="D37" t="n">
-        <v>1741.780029296875</v>
+        <v>1755.1513671875</v>
       </c>
     </row>
     <row r="38">
@@ -967,10 +967,10 @@
         <v>100</v>
       </c>
       <c r="C38" t="n">
-        <v>21.35</v>
+        <v>26.17</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.16552734375</v>
+        <v>1435.739013671875</v>
       </c>
     </row>
     <row r="39">
@@ -981,10 +981,10 @@
         <v>75</v>
       </c>
       <c r="C39" t="n">
-        <v>25.3</v>
+        <v>26.94</v>
       </c>
       <c r="D39" t="n">
-        <v>1086.4462890625</v>
+        <v>1174.3232421875</v>
       </c>
     </row>
     <row r="40">
@@ -995,10 +995,10 @@
         <v>50</v>
       </c>
       <c r="C40" t="n">
-        <v>18.5</v>
+        <v>15.02</v>
       </c>
       <c r="D40" t="n">
-        <v>793.43212890625</v>
+        <v>925.6052856445312</v>
       </c>
     </row>
     <row r="41">
@@ -1009,10 +1009,10 @@
         <v>25</v>
       </c>
       <c r="C41" t="n">
-        <v>18.96</v>
+        <v>22.29</v>
       </c>
       <c r="D41" t="n">
-        <v>493.2393188476562</v>
+        <v>450.4673461914062</v>
       </c>
     </row>
     <row r="42">
@@ -1023,10 +1023,10 @@
         <v>250</v>
       </c>
       <c r="C42" t="n">
-        <v>27.8</v>
+        <v>31.9</v>
       </c>
       <c r="D42" t="n">
-        <v>2496.23095703125</v>
+        <v>2864.533447265625</v>
       </c>
     </row>
     <row r="43">
@@ -1037,10 +1037,10 @@
         <v>225</v>
       </c>
       <c r="C43" t="n">
-        <v>32.3</v>
+        <v>35.41</v>
       </c>
       <c r="D43" t="n">
-        <v>2770.375244140625</v>
+        <v>2523.2734375</v>
       </c>
     </row>
     <row r="44">
@@ -1051,10 +1051,10 @@
         <v>200</v>
       </c>
       <c r="C44" t="n">
-        <v>28.87</v>
+        <v>27.22</v>
       </c>
       <c r="D44" t="n">
-        <v>2207.98779296875</v>
+        <v>2668.771240234375</v>
       </c>
     </row>
     <row r="45">
@@ -1065,10 +1065,10 @@
         <v>175</v>
       </c>
       <c r="C45" t="n">
-        <v>35.03</v>
+        <v>29.37</v>
       </c>
       <c r="D45" t="n">
-        <v>2589.37255859375</v>
+        <v>2192.78369140625</v>
       </c>
     </row>
     <row r="46">
@@ -1079,10 +1079,10 @@
         <v>150</v>
       </c>
       <c r="C46" t="n">
-        <v>31.57</v>
+        <v>30.2</v>
       </c>
       <c r="D46" t="n">
-        <v>2356.017578125</v>
+        <v>2217.725341796875</v>
       </c>
     </row>
     <row r="47">
@@ -1093,10 +1093,10 @@
         <v>125</v>
       </c>
       <c r="C47" t="n">
-        <v>31.03</v>
+        <v>31.38</v>
       </c>
       <c r="D47" t="n">
-        <v>1953.363525390625</v>
+        <v>1999.784301757812</v>
       </c>
     </row>
     <row r="48">
@@ -1107,10 +1107,10 @@
         <v>100</v>
       </c>
       <c r="C48" t="n">
-        <v>32.2</v>
+        <v>27.63</v>
       </c>
       <c r="D48" t="n">
-        <v>1728.119140625</v>
+        <v>1626.370239257812</v>
       </c>
     </row>
     <row r="49">
@@ -1121,10 +1121,10 @@
         <v>75</v>
       </c>
       <c r="C49" t="n">
-        <v>26.85</v>
+        <v>21.82</v>
       </c>
       <c r="D49" t="n">
-        <v>1377.427368164062</v>
+        <v>1381.942749023438</v>
       </c>
     </row>
     <row r="50">
@@ -1135,10 +1135,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="n">
-        <v>22.51</v>
+        <v>22.66</v>
       </c>
       <c r="D50" t="n">
-        <v>751.4773559570312</v>
+        <v>699.590087890625</v>
       </c>
     </row>
     <row r="51">
@@ -1149,10 +1149,10 @@
         <v>25</v>
       </c>
       <c r="C51" t="n">
-        <v>18.77</v>
+        <v>11.38</v>
       </c>
       <c r="D51" t="n">
-        <v>499.9214782714844</v>
+        <v>403.6768493652344</v>
       </c>
     </row>
     <row r="52">
@@ -1163,10 +1163,10 @@
         <v>250</v>
       </c>
       <c r="C52" t="n">
-        <v>31.58</v>
+        <v>36.85</v>
       </c>
       <c r="D52" t="n">
-        <v>2618.56787109375</v>
+        <v>2756.59521484375</v>
       </c>
     </row>
     <row r="53">
@@ -1177,10 +1177,10 @@
         <v>225</v>
       </c>
       <c r="C53" t="n">
-        <v>25.93</v>
+        <v>37.6</v>
       </c>
       <c r="D53" t="n">
-        <v>2655.40380859375</v>
+        <v>2980.138671875</v>
       </c>
     </row>
     <row r="54">
@@ -1191,10 +1191,10 @@
         <v>200</v>
       </c>
       <c r="C54" t="n">
-        <v>21.92</v>
+        <v>33.38</v>
       </c>
       <c r="D54" t="n">
-        <v>2234.554931640625</v>
+        <v>2640.35498046875</v>
       </c>
     </row>
     <row r="55">
@@ -1205,10 +1205,10 @@
         <v>175</v>
       </c>
       <c r="C55" t="n">
-        <v>33.48</v>
+        <v>30.65</v>
       </c>
       <c r="D55" t="n">
-        <v>2259.250732421875</v>
+        <v>2375.344970703125</v>
       </c>
     </row>
     <row r="56">
@@ -1219,10 +1219,10 @@
         <v>150</v>
       </c>
       <c r="C56" t="n">
-        <v>29.43</v>
+        <v>28.15</v>
       </c>
       <c r="D56" t="n">
-        <v>1992.717041015625</v>
+        <v>1954.680786132812</v>
       </c>
     </row>
     <row r="57">
@@ -1233,10 +1233,10 @@
         <v>125</v>
       </c>
       <c r="C57" t="n">
-        <v>26.93</v>
+        <v>28.31</v>
       </c>
       <c r="D57" t="n">
-        <v>1864.476440429688</v>
+        <v>1900.5439453125</v>
       </c>
     </row>
     <row r="58">
@@ -1247,10 +1247,10 @@
         <v>100</v>
       </c>
       <c r="C58" t="n">
-        <v>31.42</v>
+        <v>20.87</v>
       </c>
       <c r="D58" t="n">
-        <v>1483.353271484375</v>
+        <v>1482.428588867188</v>
       </c>
     </row>
     <row r="59">
@@ -1261,10 +1261,10 @@
         <v>75</v>
       </c>
       <c r="C59" t="n">
-        <v>29.46</v>
+        <v>21.04</v>
       </c>
       <c r="D59" t="n">
-        <v>1441.359985351562</v>
+        <v>1205.542846679688</v>
       </c>
     </row>
     <row r="60">
@@ -1275,10 +1275,10 @@
         <v>50</v>
       </c>
       <c r="C60" t="n">
-        <v>26.12</v>
+        <v>21.74</v>
       </c>
       <c r="D60" t="n">
-        <v>975.1021118164062</v>
+        <v>941.719970703125</v>
       </c>
     </row>
     <row r="61">
@@ -1289,10 +1289,10 @@
         <v>25</v>
       </c>
       <c r="C61" t="n">
-        <v>23.59</v>
+        <v>23.53</v>
       </c>
       <c r="D61" t="n">
-        <v>457.17626953125</v>
+        <v>447.2056884765625</v>
       </c>
     </row>
     <row r="62">
@@ -1303,10 +1303,10 @@
         <v>250</v>
       </c>
       <c r="C62" t="n">
-        <v>32.59</v>
+        <v>35.11</v>
       </c>
       <c r="D62" t="n">
-        <v>2874.98583984375</v>
+        <v>2932.17041015625</v>
       </c>
     </row>
     <row r="63">
@@ -1317,10 +1317,10 @@
         <v>225</v>
       </c>
       <c r="C63" t="n">
-        <v>38.08</v>
+        <v>37.12</v>
       </c>
       <c r="D63" t="n">
-        <v>2706.821044921875</v>
+        <v>2749.574951171875</v>
       </c>
     </row>
     <row r="64">
@@ -1331,10 +1331,10 @@
         <v>200</v>
       </c>
       <c r="C64" t="n">
-        <v>27</v>
+        <v>29.74</v>
       </c>
       <c r="D64" t="n">
-        <v>2145.399169921875</v>
+        <v>2773.871826171875</v>
       </c>
     </row>
     <row r="65">
@@ -1345,10 +1345,10 @@
         <v>175</v>
       </c>
       <c r="C65" t="n">
-        <v>32.36</v>
+        <v>20.75</v>
       </c>
       <c r="D65" t="n">
-        <v>2224.3876953125</v>
+        <v>2317.208740234375</v>
       </c>
     </row>
     <row r="66">
@@ -1359,10 +1359,10 @@
         <v>150</v>
       </c>
       <c r="C66" t="n">
-        <v>29.47</v>
+        <v>28.04</v>
       </c>
       <c r="D66" t="n">
-        <v>2055.859130859375</v>
+        <v>2052.05517578125</v>
       </c>
     </row>
     <row r="67">
@@ -1373,10 +1373,10 @@
         <v>125</v>
       </c>
       <c r="C67" t="n">
-        <v>21.52</v>
+        <v>22.86</v>
       </c>
       <c r="D67" t="n">
-        <v>1857.502319335938</v>
+        <v>1658.172119140625</v>
       </c>
     </row>
     <row r="68">
@@ -1387,10 +1387,10 @@
         <v>100</v>
       </c>
       <c r="C68" t="n">
-        <v>32.48</v>
+        <v>22.84</v>
       </c>
       <c r="D68" t="n">
-        <v>1571.130981445312</v>
+        <v>1153.703491210938</v>
       </c>
     </row>
     <row r="69">
@@ -1401,10 +1401,10 @@
         <v>75</v>
       </c>
       <c r="C69" t="n">
-        <v>25.08</v>
+        <v>24.46</v>
       </c>
       <c r="D69" t="n">
-        <v>796.6377563476562</v>
+        <v>1222.319213867188</v>
       </c>
     </row>
     <row r="70">
@@ -1415,10 +1415,10 @@
         <v>50</v>
       </c>
       <c r="C70" t="n">
-        <v>19.25</v>
+        <v>18.53</v>
       </c>
       <c r="D70" t="n">
-        <v>839.913330078125</v>
+        <v>861.5573120117188</v>
       </c>
     </row>
     <row r="71">
@@ -1429,10 +1429,10 @@
         <v>25</v>
       </c>
       <c r="C71" t="n">
-        <v>24.72</v>
+        <v>19.07</v>
       </c>
       <c r="D71" t="n">
-        <v>401.7670593261719</v>
+        <v>452.6549072265625</v>
       </c>
     </row>
     <row r="72">
@@ -1443,10 +1443,10 @@
         <v>250</v>
       </c>
       <c r="C72" t="n">
-        <v>25.97</v>
+        <v>33.03</v>
       </c>
       <c r="D72" t="n">
-        <v>1736.938842773438</v>
+        <v>3090.6884765625</v>
       </c>
     </row>
     <row r="73">
@@ -1457,10 +1457,10 @@
         <v>225</v>
       </c>
       <c r="C73" t="n">
-        <v>33.51</v>
+        <v>34.58</v>
       </c>
       <c r="D73" t="n">
-        <v>2334.078369140625</v>
+        <v>2962.9775390625</v>
       </c>
     </row>
     <row r="74">
@@ -1471,10 +1471,10 @@
         <v>200</v>
       </c>
       <c r="C74" t="n">
-        <v>34.8</v>
+        <v>28.47</v>
       </c>
       <c r="D74" t="n">
-        <v>2411.463623046875</v>
+        <v>1772.1533203125</v>
       </c>
     </row>
     <row r="75">
@@ -1485,10 +1485,10 @@
         <v>175</v>
       </c>
       <c r="C75" t="n">
-        <v>32.42</v>
+        <v>32.12</v>
       </c>
       <c r="D75" t="n">
-        <v>2589.26416015625</v>
+        <v>2263.90673828125</v>
       </c>
     </row>
     <row r="76">
@@ -1499,10 +1499,10 @@
         <v>150</v>
       </c>
       <c r="C76" t="n">
-        <v>34.83</v>
+        <v>29.99</v>
       </c>
       <c r="D76" t="n">
-        <v>2330.2890625</v>
+        <v>1897.443481445312</v>
       </c>
     </row>
     <row r="77">
@@ -1513,10 +1513,10 @@
         <v>125</v>
       </c>
       <c r="C77" t="n">
-        <v>27.75</v>
+        <v>26.61</v>
       </c>
       <c r="D77" t="n">
-        <v>1769.038818359375</v>
+        <v>1675.564331054688</v>
       </c>
     </row>
     <row r="78">
@@ -1527,10 +1527,10 @@
         <v>100</v>
       </c>
       <c r="C78" t="n">
-        <v>18.38</v>
+        <v>20.63</v>
       </c>
       <c r="D78" t="n">
-        <v>1587.509887695312</v>
+        <v>1635.399658203125</v>
       </c>
     </row>
     <row r="79">
@@ -1541,10 +1541,10 @@
         <v>75</v>
       </c>
       <c r="C79" t="n">
-        <v>22.57</v>
+        <v>22.86</v>
       </c>
       <c r="D79" t="n">
-        <v>1311.213134765625</v>
+        <v>1155.3896484375</v>
       </c>
     </row>
     <row r="80">
@@ -1555,10 +1555,10 @@
         <v>50</v>
       </c>
       <c r="C80" t="n">
-        <v>23.18</v>
+        <v>15.19</v>
       </c>
       <c r="D80" t="n">
-        <v>914.1123657226562</v>
+        <v>868.6788940429688</v>
       </c>
     </row>
     <row r="81">
@@ -1569,10 +1569,1690 @@
         <v>25</v>
       </c>
       <c r="C81" t="n">
-        <v>24.82</v>
+        <v>17.54</v>
       </c>
       <c r="D81" t="n">
-        <v>488.4190979003906</v>
+        <v>465.0360717773438</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>16</v>
+      </c>
+      <c r="B82" t="n">
+        <v>250</v>
+      </c>
+      <c r="C82" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3016.823486328125</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>16</v>
+      </c>
+      <c r="B83" t="n">
+        <v>225</v>
+      </c>
+      <c r="C83" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2766.72509765625</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>16</v>
+      </c>
+      <c r="B84" t="n">
+        <v>200</v>
+      </c>
+      <c r="C84" t="n">
+        <v>34.71</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2534.976318359375</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>16</v>
+      </c>
+      <c r="B85" t="n">
+        <v>175</v>
+      </c>
+      <c r="C85" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2450.387939453125</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>16</v>
+      </c>
+      <c r="B86" t="n">
+        <v>150</v>
+      </c>
+      <c r="C86" t="n">
+        <v>23</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2017.240966796875</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>16</v>
+      </c>
+      <c r="B87" t="n">
+        <v>125</v>
+      </c>
+      <c r="C87" t="n">
+        <v>24.68</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1717.146484375</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>16</v>
+      </c>
+      <c r="B88" t="n">
+        <v>100</v>
+      </c>
+      <c r="C88" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1428.102172851562</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>16</v>
+      </c>
+      <c r="B89" t="n">
+        <v>75</v>
+      </c>
+      <c r="C89" t="n">
+        <v>23</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1282.984008789062</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>16</v>
+      </c>
+      <c r="B90" t="n">
+        <v>50</v>
+      </c>
+      <c r="C90" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="D90" t="n">
+        <v>890.5580444335938</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>16</v>
+      </c>
+      <c r="B91" t="n">
+        <v>25</v>
+      </c>
+      <c r="C91" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="D91" t="n">
+        <v>411.1587219238281</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>18</v>
+      </c>
+      <c r="B92" t="n">
+        <v>250</v>
+      </c>
+      <c r="C92" t="n">
+        <v>39.94</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2649.506591796875</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>18</v>
+      </c>
+      <c r="B93" t="n">
+        <v>225</v>
+      </c>
+      <c r="C93" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2777.7607421875</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>18</v>
+      </c>
+      <c r="B94" t="n">
+        <v>200</v>
+      </c>
+      <c r="C94" t="n">
+        <v>31.94</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2274.9365234375</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>18</v>
+      </c>
+      <c r="B95" t="n">
+        <v>175</v>
+      </c>
+      <c r="C95" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2431.175537109375</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>18</v>
+      </c>
+      <c r="B96" t="n">
+        <v>150</v>
+      </c>
+      <c r="C96" t="n">
+        <v>19.04</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1597.0693359375</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>18</v>
+      </c>
+      <c r="B97" t="n">
+        <v>125</v>
+      </c>
+      <c r="C97" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1668.869750976562</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>18</v>
+      </c>
+      <c r="B98" t="n">
+        <v>100</v>
+      </c>
+      <c r="C98" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1445.405395507812</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>18</v>
+      </c>
+      <c r="B99" t="n">
+        <v>75</v>
+      </c>
+      <c r="C99" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1436.560546875</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>18</v>
+      </c>
+      <c r="B100" t="n">
+        <v>50</v>
+      </c>
+      <c r="C100" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="D100" t="n">
+        <v>721.28271484375</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>18</v>
+      </c>
+      <c r="B101" t="n">
+        <v>25</v>
+      </c>
+      <c r="C101" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="D101" t="n">
+        <v>448.1759643554688</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>20</v>
+      </c>
+      <c r="B102" t="n">
+        <v>250</v>
+      </c>
+      <c r="C102" t="n">
+        <v>36.58</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2918.737548828125</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>20</v>
+      </c>
+      <c r="B103" t="n">
+        <v>225</v>
+      </c>
+      <c r="C103" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2773.56591796875</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>20</v>
+      </c>
+      <c r="B104" t="n">
+        <v>200</v>
+      </c>
+      <c r="C104" t="n">
+        <v>27.76</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2389.266357421875</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>20</v>
+      </c>
+      <c r="B105" t="n">
+        <v>175</v>
+      </c>
+      <c r="C105" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2634.49951171875</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>20</v>
+      </c>
+      <c r="B106" t="n">
+        <v>150</v>
+      </c>
+      <c r="C106" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2068.041259765625</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>20</v>
+      </c>
+      <c r="B107" t="n">
+        <v>125</v>
+      </c>
+      <c r="C107" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1873.385864257812</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>20</v>
+      </c>
+      <c r="B108" t="n">
+        <v>100</v>
+      </c>
+      <c r="C108" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1552.758056640625</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>20</v>
+      </c>
+      <c r="B109" t="n">
+        <v>75</v>
+      </c>
+      <c r="C109" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1311.433349609375</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>20</v>
+      </c>
+      <c r="B110" t="n">
+        <v>50</v>
+      </c>
+      <c r="C110" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="D110" t="n">
+        <v>914.4287109375</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>20</v>
+      </c>
+      <c r="B111" t="n">
+        <v>25</v>
+      </c>
+      <c r="C111" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="D111" t="n">
+        <v>490.1270446777344</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>22</v>
+      </c>
+      <c r="B112" t="n">
+        <v>250</v>
+      </c>
+      <c r="C112" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2002.798217773438</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>22</v>
+      </c>
+      <c r="B113" t="n">
+        <v>225</v>
+      </c>
+      <c r="C113" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2200.20068359375</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>22</v>
+      </c>
+      <c r="B114" t="n">
+        <v>200</v>
+      </c>
+      <c r="C114" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2284.04736328125</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>22</v>
+      </c>
+      <c r="B115" t="n">
+        <v>175</v>
+      </c>
+      <c r="C115" t="n">
+        <v>29.34</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1590.014892578125</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>22</v>
+      </c>
+      <c r="B116" t="n">
+        <v>150</v>
+      </c>
+      <c r="C116" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2310.2822265625</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>22</v>
+      </c>
+      <c r="B117" t="n">
+        <v>125</v>
+      </c>
+      <c r="C117" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1880.174438476562</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>22</v>
+      </c>
+      <c r="B118" t="n">
+        <v>100</v>
+      </c>
+      <c r="C118" t="n">
+        <v>33.97</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1641.689331054688</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>22</v>
+      </c>
+      <c r="B119" t="n">
+        <v>75</v>
+      </c>
+      <c r="C119" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1004.830688476562</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>22</v>
+      </c>
+      <c r="B120" t="n">
+        <v>50</v>
+      </c>
+      <c r="C120" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="D120" t="n">
+        <v>917.7660522460938</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>22</v>
+      </c>
+      <c r="B121" t="n">
+        <v>25</v>
+      </c>
+      <c r="C121" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="D121" t="n">
+        <v>440.2777404785156</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>24</v>
+      </c>
+      <c r="B122" t="n">
+        <v>250</v>
+      </c>
+      <c r="C122" t="n">
+        <v>35.22</v>
+      </c>
+      <c r="D122" t="n">
+        <v>3085.294189453125</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>24</v>
+      </c>
+      <c r="B123" t="n">
+        <v>225</v>
+      </c>
+      <c r="C123" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3088.144775390625</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>24</v>
+      </c>
+      <c r="B124" t="n">
+        <v>200</v>
+      </c>
+      <c r="C124" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1808.263916015625</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>24</v>
+      </c>
+      <c r="B125" t="n">
+        <v>175</v>
+      </c>
+      <c r="C125" t="n">
+        <v>34.22</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2658.450439453125</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>24</v>
+      </c>
+      <c r="B126" t="n">
+        <v>150</v>
+      </c>
+      <c r="C126" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2145.054931640625</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>24</v>
+      </c>
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1880.66748046875</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>24</v>
+      </c>
+      <c r="B128" t="n">
+        <v>100</v>
+      </c>
+      <c r="C128" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1692.765014648438</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>24</v>
+      </c>
+      <c r="B129" t="n">
+        <v>75</v>
+      </c>
+      <c r="C129" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1246.193481445312</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>24</v>
+      </c>
+      <c r="B130" t="n">
+        <v>50</v>
+      </c>
+      <c r="C130" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="D130" t="n">
+        <v>802.014892578125</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>24</v>
+      </c>
+      <c r="B131" t="n">
+        <v>25</v>
+      </c>
+      <c r="C131" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D131" t="n">
+        <v>503.9117431640625</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>26</v>
+      </c>
+      <c r="B132" t="n">
+        <v>250</v>
+      </c>
+      <c r="C132" t="n">
+        <v>28.36</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3010.00341796875</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>26</v>
+      </c>
+      <c r="B133" t="n">
+        <v>225</v>
+      </c>
+      <c r="C133" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2353.888427734375</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>26</v>
+      </c>
+      <c r="B134" t="n">
+        <v>200</v>
+      </c>
+      <c r="C134" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2698.785888671875</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>26</v>
+      </c>
+      <c r="B135" t="n">
+        <v>175</v>
+      </c>
+      <c r="C135" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1739.716064453125</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>26</v>
+      </c>
+      <c r="B136" t="n">
+        <v>150</v>
+      </c>
+      <c r="C136" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2138.032958984375</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>26</v>
+      </c>
+      <c r="B137" t="n">
+        <v>125</v>
+      </c>
+      <c r="C137" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2011.022705078125</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>26</v>
+      </c>
+      <c r="B138" t="n">
+        <v>100</v>
+      </c>
+      <c r="C138" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1621.738403320312</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>26</v>
+      </c>
+      <c r="B139" t="n">
+        <v>75</v>
+      </c>
+      <c r="C139" t="n">
+        <v>26.03</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1439.83837890625</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>26</v>
+      </c>
+      <c r="B140" t="n">
+        <v>50</v>
+      </c>
+      <c r="C140" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="D140" t="n">
+        <v>940.18505859375</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>26</v>
+      </c>
+      <c r="B141" t="n">
+        <v>25</v>
+      </c>
+      <c r="C141" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="D141" t="n">
+        <v>468.7834167480469</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>28</v>
+      </c>
+      <c r="B142" t="n">
+        <v>250</v>
+      </c>
+      <c r="C142" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="D142" t="n">
+        <v>3352.240234375</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>28</v>
+      </c>
+      <c r="B143" t="n">
+        <v>225</v>
+      </c>
+      <c r="C143" t="n">
+        <v>32.07</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2797.632568359375</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>28</v>
+      </c>
+      <c r="B144" t="n">
+        <v>200</v>
+      </c>
+      <c r="C144" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1821.064331054688</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>28</v>
+      </c>
+      <c r="B145" t="n">
+        <v>175</v>
+      </c>
+      <c r="C145" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2065.89453125</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>28</v>
+      </c>
+      <c r="B146" t="n">
+        <v>150</v>
+      </c>
+      <c r="C146" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2042.5478515625</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>28</v>
+      </c>
+      <c r="B147" t="n">
+        <v>125</v>
+      </c>
+      <c r="C147" t="n">
+        <v>31.13</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2058.95166015625</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>28</v>
+      </c>
+      <c r="B148" t="n">
+        <v>100</v>
+      </c>
+      <c r="C148" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1628.56884765625</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>28</v>
+      </c>
+      <c r="B149" t="n">
+        <v>75</v>
+      </c>
+      <c r="C149" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1356.210815429688</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>28</v>
+      </c>
+      <c r="B150" t="n">
+        <v>50</v>
+      </c>
+      <c r="C150" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="D150" t="n">
+        <v>856.67431640625</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>28</v>
+      </c>
+      <c r="B151" t="n">
+        <v>25</v>
+      </c>
+      <c r="C151" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="D151" t="n">
+        <v>430.9751892089844</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>30</v>
+      </c>
+      <c r="B152" t="n">
+        <v>250</v>
+      </c>
+      <c r="C152" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2998.442626953125</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>30</v>
+      </c>
+      <c r="B153" t="n">
+        <v>225</v>
+      </c>
+      <c r="C153" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2685.048583984375</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>30</v>
+      </c>
+      <c r="B154" t="n">
+        <v>200</v>
+      </c>
+      <c r="C154" t="n">
+        <v>37.49</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2418.748291015625</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>30</v>
+      </c>
+      <c r="B155" t="n">
+        <v>175</v>
+      </c>
+      <c r="C155" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1843.427368164062</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>30</v>
+      </c>
+      <c r="B156" t="n">
+        <v>150</v>
+      </c>
+      <c r="C156" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1539.632568359375</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>30</v>
+      </c>
+      <c r="B157" t="n">
+        <v>125</v>
+      </c>
+      <c r="C157" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1857.79052734375</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>30</v>
+      </c>
+      <c r="B158" t="n">
+        <v>100</v>
+      </c>
+      <c r="C158" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1503.554443359375</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>30</v>
+      </c>
+      <c r="B159" t="n">
+        <v>75</v>
+      </c>
+      <c r="C159" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1132.475708007812</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>30</v>
+      </c>
+      <c r="B160" t="n">
+        <v>50</v>
+      </c>
+      <c r="C160" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="D160" t="n">
+        <v>901.8323364257812</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>30</v>
+      </c>
+      <c r="B161" t="n">
+        <v>25</v>
+      </c>
+      <c r="C161" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="D161" t="n">
+        <v>448.8816528320312</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>35</v>
+      </c>
+      <c r="B162" t="n">
+        <v>250</v>
+      </c>
+      <c r="C162" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2043.507080078125</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>35</v>
+      </c>
+      <c r="B163" t="n">
+        <v>225</v>
+      </c>
+      <c r="C163" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2477.86279296875</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>35</v>
+      </c>
+      <c r="B164" t="n">
+        <v>200</v>
+      </c>
+      <c r="C164" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2264.977294921875</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>35</v>
+      </c>
+      <c r="B165" t="n">
+        <v>175</v>
+      </c>
+      <c r="C165" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2352.976806640625</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>35</v>
+      </c>
+      <c r="B166" t="n">
+        <v>150</v>
+      </c>
+      <c r="C166" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2379.31396484375</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>35</v>
+      </c>
+      <c r="B167" t="n">
+        <v>125</v>
+      </c>
+      <c r="C167" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2029.77490234375</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>35</v>
+      </c>
+      <c r="B168" t="n">
+        <v>100</v>
+      </c>
+      <c r="C168" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1580.194091796875</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>35</v>
+      </c>
+      <c r="B169" t="n">
+        <v>75</v>
+      </c>
+      <c r="C169" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1159.370361328125</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>35</v>
+      </c>
+      <c r="B170" t="n">
+        <v>50</v>
+      </c>
+      <c r="C170" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="D170" t="n">
+        <v>842.1497802734375</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>35</v>
+      </c>
+      <c r="B171" t="n">
+        <v>25</v>
+      </c>
+      <c r="C171" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="D171" t="n">
+        <v>485.8685302734375</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>40</v>
+      </c>
+      <c r="B172" t="n">
+        <v>250</v>
+      </c>
+      <c r="C172" t="n">
+        <v>33.92</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2593.669677734375</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>40</v>
+      </c>
+      <c r="B173" t="n">
+        <v>225</v>
+      </c>
+      <c r="C173" t="n">
+        <v>33.37</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2636.26806640625</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>40</v>
+      </c>
+      <c r="B174" t="n">
+        <v>200</v>
+      </c>
+      <c r="C174" t="n">
+        <v>28.34</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2528.50146484375</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>40</v>
+      </c>
+      <c r="B175" t="n">
+        <v>175</v>
+      </c>
+      <c r="C175" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1707.881958007812</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>40</v>
+      </c>
+      <c r="B176" t="n">
+        <v>150</v>
+      </c>
+      <c r="C176" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="D176" t="n">
+        <v>2055.116455078125</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>40</v>
+      </c>
+      <c r="B177" t="n">
+        <v>125</v>
+      </c>
+      <c r="C177" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2045.325317382812</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>40</v>
+      </c>
+      <c r="B178" t="n">
+        <v>100</v>
+      </c>
+      <c r="C178" t="n">
+        <v>28.15</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1510.414184570312</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>40</v>
+      </c>
+      <c r="B179" t="n">
+        <v>75</v>
+      </c>
+      <c r="C179" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1190.363159179688</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>40</v>
+      </c>
+      <c r="B180" t="n">
+        <v>50</v>
+      </c>
+      <c r="C180" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="D180" t="n">
+        <v>944.552734375</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>40</v>
+      </c>
+      <c r="B181" t="n">
+        <v>25</v>
+      </c>
+      <c r="C181" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="D181" t="n">
+        <v>400.5838317871094</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>45</v>
+      </c>
+      <c r="B182" t="n">
+        <v>250</v>
+      </c>
+      <c r="C182" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2559.024658203125</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>45</v>
+      </c>
+      <c r="B183" t="n">
+        <v>225</v>
+      </c>
+      <c r="C183" t="n">
+        <v>30.35</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2402.381103515625</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>45</v>
+      </c>
+      <c r="B184" t="n">
+        <v>200</v>
+      </c>
+      <c r="C184" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2615.16064453125</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>45</v>
+      </c>
+      <c r="B185" t="n">
+        <v>175</v>
+      </c>
+      <c r="C185" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2261.687744140625</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>45</v>
+      </c>
+      <c r="B186" t="n">
+        <v>150</v>
+      </c>
+      <c r="C186" t="n">
+        <v>36.26</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1946.448974609375</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>45</v>
+      </c>
+      <c r="B187" t="n">
+        <v>125</v>
+      </c>
+      <c r="C187" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1704.410034179688</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>45</v>
+      </c>
+      <c r="B188" t="n">
+        <v>100</v>
+      </c>
+      <c r="C188" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1458.4501953125</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>45</v>
+      </c>
+      <c r="B189" t="n">
+        <v>75</v>
+      </c>
+      <c r="C189" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1387.401123046875</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>45</v>
+      </c>
+      <c r="B190" t="n">
+        <v>50</v>
+      </c>
+      <c r="C190" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="D190" t="n">
+        <v>783.3796997070312</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>45</v>
+      </c>
+      <c r="B191" t="n">
+        <v>25</v>
+      </c>
+      <c r="C191" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="D191" t="n">
+        <v>518.4545288085938</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>50</v>
+      </c>
+      <c r="B192" t="n">
+        <v>250</v>
+      </c>
+      <c r="C192" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2362.586181640625</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>50</v>
+      </c>
+      <c r="B193" t="n">
+        <v>225</v>
+      </c>
+      <c r="C193" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2109.1318359375</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>50</v>
+      </c>
+      <c r="B194" t="n">
+        <v>200</v>
+      </c>
+      <c r="C194" t="n">
+        <v>34.31</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2514.96630859375</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>50</v>
+      </c>
+      <c r="B195" t="n">
+        <v>175</v>
+      </c>
+      <c r="C195" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1621.914428710938</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>50</v>
+      </c>
+      <c r="B196" t="n">
+        <v>150</v>
+      </c>
+      <c r="C196" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2247.84228515625</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>50</v>
+      </c>
+      <c r="B197" t="n">
+        <v>125</v>
+      </c>
+      <c r="C197" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1943.492309570312</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>50</v>
+      </c>
+      <c r="B198" t="n">
+        <v>100</v>
+      </c>
+      <c r="C198" t="n">
+        <v>22.38</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1415.384643554688</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>50</v>
+      </c>
+      <c r="B199" t="n">
+        <v>75</v>
+      </c>
+      <c r="C199" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1323.320190429688</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>50</v>
+      </c>
+      <c r="B200" t="n">
+        <v>50</v>
+      </c>
+      <c r="C200" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="D200" t="n">
+        <v>853.5234985351562</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>50</v>
+      </c>
+      <c r="B201" t="n">
+        <v>25</v>
+      </c>
+      <c r="C201" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="D201" t="n">
+        <v>445.1781311035156</v>
       </c>
     </row>
   </sheetData>
